--- a/POC_Revisan/Data Layer/Config.xlsx
+++ b/POC_Revisan/Data Layer/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\UiPath\GitHub\RevisanPOC\POC_Revisan\Data Layer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE527733-C782-4A50-B713-9520681C0E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214BBD36-3733-4CCD-9409-B5E9603B0E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="2208" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Nume ,Prenume,Cetatenie,Tip act identitate,CNP,Judet,Localitate,Adresa,Tip contract,Durata contract,Tip norma,Durata timp munca,Repartizare timp munca,Numar contract,Data incepere activitate,Data incheiere contract,Functie,Salariu brut,Data efecte</t>
+  </si>
+  <si>
+    <t>OutputFolderPath</t>
+  </si>
+  <si>
+    <t>Data Layer\Output\Output.xlsx</t>
   </si>
 </sst>
 </file>
@@ -490,7 +496,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -544,7 +550,14 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="4" spans="1:26" ht="14.4">
       <c r="C4" s="4"/>
     </row>
